--- a/codegen/__out__/deno/gen/menu/menu.xlsx
+++ b/codegen/__out__/deno/gen/menu/menu.xlsx
@@ -54,7 +54,7 @@
     <t xml:space="preserve">备注</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model._type%&gt;</t>
+    <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.type%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model._menu_id%&gt;</t>
@@ -69,7 +69,7 @@
     <t xml:space="preserve">&lt;%=model.route_query%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.is_enabled%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%~model.order_by%&gt;</t>

--- a/codegen/__out__/deno/gen/menu/menu.xlsx
+++ b/codegen/__out__/deno/gen/menu/menu.xlsx
@@ -30,28 +30,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">父菜单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">路由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">参数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">启用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">排序</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注</t>
+    <t xml:space="preserve">&lt;%=await _data_.n("类型")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("父菜单")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("名称")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("路由")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("参数")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("启用")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("排序")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("备注")%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.type%&gt;</t>
